--- a/Eindwerk/checklist.xlsx
+++ b/Eindwerk/checklist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Must</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>helmo</t>
+  </si>
+  <si>
+    <t>save / load</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +616,9 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
@@ -688,7 +693,9 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>

--- a/Eindwerk/checklist.xlsx
+++ b/Eindwerk/checklist.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Must</t>
   </si>
@@ -95,6 +94,9 @@
   </si>
   <si>
     <t>save / load</t>
+  </si>
+  <si>
+    <t>make static methods from dungeon creator</t>
   </si>
 </sst>
 </file>
@@ -492,7 +494,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +555,9 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
@@ -561,7 +565,9 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
@@ -569,7 +575,9 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
@@ -642,7 +650,9 @@
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -650,7 +660,9 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
@@ -693,15 +705,16 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>

--- a/Eindwerk/checklist.xlsx
+++ b/Eindwerk/checklist.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Must</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>make static methods from dungeon creator</t>
+  </si>
+  <si>
+    <t>helmes</t>
   </si>
 </sst>
 </file>
@@ -128,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,17 +183,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +510,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +721,9 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
